--- a/experimental results/samples_calib1.xlsx
+++ b/experimental results/samples_calib1.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\csdl\calib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDL_DKS\rs485\experimental results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A81F4E98-88A3-4925-A158-828334B8899B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4CFC6C-3852-471E-847E-44B041E54CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58EF792D-F97D-408D-9ABA-4D1E2A6F2F3D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58EF792D-F97D-408D-9ABA-4D1E2A6F2F3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +58,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -67,6 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,20 +381,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26EDAB1-E201-4045-98A4-8EDF858CED81}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>44354.680944813801</v>
+        <v>45815.680949074071</v>
       </c>
       <c r="B1" s="2">
         <v>31.4</v>
@@ -414,10 +415,11 @@
       <c r="G1" s="2">
         <v>76.3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44354.680969711102</v>
+        <v>45815.680972222224</v>
       </c>
       <c r="B2" s="2">
         <v>31.7</v>
@@ -437,10 +439,11 @@
       <c r="G2" s="2">
         <v>76.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44354.6813256471</v>
+        <v>45815.681331018517</v>
       </c>
       <c r="B3" s="2">
         <v>31.7</v>
@@ -460,10 +463,11 @@
       <c r="G3" s="2">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44354.6817034306</v>
+        <v>45815.681701388887</v>
       </c>
       <c r="B4" s="2">
         <v>31.7</v>
@@ -483,10 +487,11 @@
       <c r="G4" s="2">
         <v>75.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44354.682081175102</v>
+        <v>45815.682083333333</v>
       </c>
       <c r="B5" s="2">
         <v>31.7</v>
@@ -506,10 +511,11 @@
       <c r="G5" s="2">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44354.682459025396</v>
+        <v>45815.682453703703</v>
       </c>
       <c r="B6" s="2">
         <v>31.7</v>
@@ -529,10 +535,11 @@
       <c r="G6" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44354.6828366923</v>
+        <v>45815.682835648149</v>
       </c>
       <c r="B7" s="2">
         <v>31.7</v>
@@ -552,10 +559,11 @@
       <c r="G7" s="2">
         <v>75.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44354.683214543198</v>
+        <v>45815.683217592596</v>
       </c>
       <c r="B8" s="2">
         <v>31.7</v>
@@ -575,10 +583,11 @@
       <c r="G8" s="2">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44354.683592317298</v>
+        <v>45815.683587962965</v>
       </c>
       <c r="B9" s="2">
         <v>31.7</v>
@@ -598,10 +607,11 @@
       <c r="G9" s="2">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44354.68402388</v>
+        <v>45815.684027777781</v>
       </c>
       <c r="B10" s="2">
         <v>31.7</v>
@@ -621,10 +631,11 @@
       <c r="G10" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44354.684401506303</v>
+        <v>45815.684398148151</v>
       </c>
       <c r="B11" s="2">
         <v>31.7</v>
@@ -644,10 +655,11 @@
       <c r="G11" s="2">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44354.684779781703</v>
+        <v>45815.68478009259</v>
       </c>
       <c r="B12" s="2">
         <v>31.7</v>
@@ -667,10 +679,11 @@
       <c r="G12" s="2">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44354.685156975698</v>
+        <v>45815.685162037036</v>
       </c>
       <c r="B13" s="2">
         <v>31.7</v>
@@ -690,10 +703,11 @@
       <c r="G13" s="2">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44354.6855344129</v>
+        <v>45815.685532407406</v>
       </c>
       <c r="B14" s="2">
         <v>31.7</v>
@@ -713,10 +727,11 @@
       <c r="G14" s="2">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44354.685911902998</v>
+        <v>45815.685914351852</v>
       </c>
       <c r="B15" s="2">
         <v>31.7</v>
@@ -736,10 +751,11 @@
       <c r="G15" s="2">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44354.686289617901</v>
+        <v>45815.686284722222</v>
       </c>
       <c r="B16" s="2">
         <v>31.7</v>
@@ -759,10 +775,11 @@
       <c r="G16" s="2">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44354.686667240501</v>
+        <v>45815.686666666668</v>
       </c>
       <c r="B17" s="2">
         <v>31.7</v>
@@ -782,10 +799,11 @@
       <c r="G17" s="2">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44354.687045008097</v>
+        <v>45815.687048611115</v>
       </c>
       <c r="B18" s="2">
         <v>31.7</v>
@@ -805,10 +823,11 @@
       <c r="G18" s="2">
         <v>76.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44354.687422577197</v>
+        <v>45815.687418981484</v>
       </c>
       <c r="B19" s="2">
         <v>31.7</v>
@@ -828,10 +847,11 @@
       <c r="G19" s="2">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44354.687800283398</v>
+        <v>45815.687800925924</v>
       </c>
       <c r="B20" s="2">
         <v>31.7</v>
@@ -851,10 +871,11 @@
       <c r="G20" s="2">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44354.688178204196</v>
+        <v>45815.68818287037</v>
       </c>
       <c r="B21" s="2">
         <v>31.7</v>
@@ -874,10 +895,11 @@
       <c r="G21" s="2">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44354.688555775203</v>
+        <v>45815.68855324074</v>
       </c>
       <c r="B22" s="2">
         <v>31.7</v>
@@ -897,10 +919,11 @@
       <c r="G22" s="2">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44354.688933574398</v>
+        <v>45815.688935185186</v>
       </c>
       <c r="B23" s="2">
         <v>31.7</v>
@@ -920,10 +943,11 @@
       <c r="G23" s="2">
         <v>76.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44354.6893112162</v>
+        <v>45815.689305555556</v>
       </c>
       <c r="B24" s="2">
         <v>31.7</v>
@@ -943,10 +967,11 @@
       <c r="G24" s="2">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44354.689688963597</v>
+        <v>45815.689687500002</v>
       </c>
       <c r="B25" s="2">
         <v>31.7</v>
@@ -966,10 +991,11 @@
       <c r="G25" s="2">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44354.690066613599</v>
+        <v>45815.690069444441</v>
       </c>
       <c r="B26" s="2">
         <v>31.7</v>
@@ -989,10 +1015,11 @@
       <c r="G26" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44354.690444055697</v>
+        <v>45815.690439814818</v>
       </c>
       <c r="B27" s="2">
         <v>31.7</v>
@@ -1012,10 +1039,11 @@
       <c r="G27" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44354.690821714998</v>
+        <v>45815.690821759257</v>
       </c>
       <c r="B28" s="2">
         <v>31.7</v>
@@ -1035,10 +1063,11 @@
       <c r="G28" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>44354.691199550303</v>
+        <v>45815.691203703704</v>
       </c>
       <c r="B29" s="2">
         <v>31.7</v>
@@ -1058,10 +1087,11 @@
       <c r="G29" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>44354.691577129503</v>
+        <v>45815.691574074073</v>
       </c>
       <c r="B30" s="2">
         <v>31.7</v>
@@ -1081,10 +1111,11 @@
       <c r="G30" s="2">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>44354.6919549054</v>
+        <v>45815.69195601852</v>
       </c>
       <c r="B31" s="2">
         <v>31.7</v>
@@ -1104,10 +1135,11 @@
       <c r="G31" s="2">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>44354.692332494902</v>
+        <v>45815.692337962966</v>
       </c>
       <c r="B32" s="2">
         <v>31.7</v>
@@ -1127,10 +1159,11 @@
       <c r="G32" s="2">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>44354.692710040697</v>
+        <v>45815.692708333336</v>
       </c>
       <c r="B33" s="2">
         <v>31.7</v>
@@ -1150,10 +1183,11 @@
       <c r="G33" s="2">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>44354.693087724998</v>
+        <v>45815.693090277775</v>
       </c>
       <c r="B34" s="2">
         <v>31.7</v>
@@ -1173,10 +1207,11 @@
       <c r="G34" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>44354.693465238699</v>
+        <v>45815.693460648145</v>
       </c>
       <c r="B35" s="2">
         <v>31.9</v>
@@ -1196,10 +1231,11 @@
       <c r="G35" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>44354.693842717701</v>
+        <v>45815.693842592591</v>
       </c>
       <c r="B36" s="2">
         <v>31.9</v>
@@ -1219,10 +1255,11 @@
       <c r="G36" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>44354.694220140103</v>
+        <v>45815.694224537037</v>
       </c>
       <c r="B37" s="2">
         <v>31.9</v>
@@ -1242,10 +1279,11 @@
       <c r="G37" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>44354.694597458802</v>
+        <v>45815.694594907407</v>
       </c>
       <c r="B38" s="2">
         <v>31.9</v>
@@ -1265,10 +1303,11 @@
       <c r="G38" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>44354.6949750692</v>
+        <v>45815.694976851853</v>
       </c>
       <c r="B39" s="2">
         <v>31.9</v>
@@ -1288,10 +1327,11 @@
       <c r="G39" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>44354.695352613002</v>
+        <v>45815.695347222223</v>
       </c>
       <c r="B40" s="2">
         <v>31.9</v>
@@ -1311,10 +1351,11 @@
       <c r="G40" s="2">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>44354.695729969797</v>
+        <v>45815.695729166669</v>
       </c>
       <c r="B41" s="2">
         <v>31.9</v>
@@ -1334,10 +1375,11 @@
       <c r="G41" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>44354.696107291398</v>
+        <v>45815.696111111109</v>
       </c>
       <c r="B42" s="2">
         <v>31.9</v>
@@ -1357,10 +1399,11 @@
       <c r="G42" s="2">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>44354.696484924898</v>
+        <v>45815.696481481478</v>
       </c>
       <c r="B43" s="2">
         <v>31.9</v>
@@ -1380,10 +1423,11 @@
       <c r="G43" s="2">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>44354.696862218298</v>
+        <v>45815.696863425925</v>
       </c>
       <c r="B44" s="2">
         <v>31.9</v>
@@ -1403,10 +1447,11 @@
       <c r="G44" s="2">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44354.697239674802</v>
+        <v>45815.697245370371</v>
       </c>
       <c r="B45" s="2">
         <v>31.9</v>
@@ -1426,10 +1471,11 @@
       <c r="G45" s="2">
         <v>75.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44354.6976171278</v>
+        <v>45815.697615740741</v>
       </c>
       <c r="B46" s="2">
         <v>31.9</v>
@@ -1449,10 +1495,11 @@
       <c r="G46" s="2">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>44354.6979945946</v>
+        <v>45815.697997685187</v>
       </c>
       <c r="B47" s="2">
         <v>31.9</v>
@@ -1472,10 +1519,11 @@
       <c r="G47" s="2">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>44354.698372095598</v>
+        <v>45815.698368055557</v>
       </c>
       <c r="B48" s="2">
         <v>31.9</v>
@@ -1495,10 +1543,11 @@
       <c r="G48" s="2">
         <v>75.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>44354.6987495465</v>
+        <v>45815.698750000003</v>
       </c>
       <c r="B49" s="2">
         <v>31.9</v>
@@ -1518,10 +1567,11 @@
       <c r="G49" s="2">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>44354.699127227199</v>
+        <v>45815.699131944442</v>
       </c>
       <c r="B50" s="2">
         <v>31.9</v>
@@ -1541,10 +1591,11 @@
       <c r="G50" s="2">
         <v>75.8</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>44354.699504968099</v>
+        <v>45815.699502314812</v>
       </c>
       <c r="B51" s="2">
         <v>31.9</v>
@@ -1564,10 +1615,11 @@
       <c r="G51" s="2">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>44354.699882665198</v>
+        <v>45815.699884259258</v>
       </c>
       <c r="B52" s="2">
         <v>31.9</v>
@@ -1587,10 +1639,11 @@
       <c r="G52" s="2">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>44354.7002839177</v>
+        <v>45815.700289351851</v>
       </c>
       <c r="B53" s="2">
         <v>31.9</v>
@@ -1610,10 +1663,11 @@
       <c r="G53" s="2">
         <v>75.599999999999994</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>44354.700661105802</v>
+        <v>45815.700659722221</v>
       </c>
       <c r="B54" s="2">
         <v>31.4</v>
@@ -1633,10 +1687,11 @@
       <c r="G54" s="2">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>44354.700715146297</v>
+        <v>45815.70071759259</v>
       </c>
       <c r="B55" s="2">
         <v>31.4</v>
@@ -1656,6 +1711,7 @@
       <c r="G55" s="2">
         <v>76.099999999999994</v>
       </c>
+      <c r="H55" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
